--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_7_11.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_7_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-782202.3778031372</v>
+        <v>-785082.7059631404</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10036405.55371384</v>
+        <v>10036405.55371385</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,13 +671,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>32.35613620990615</v>
+        <v>107.0892503881</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0.2677079924670696</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -716,16 +716,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>122.5935461816079</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>59.72683757586846</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -908,7 +908,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>105.1636651831907</v>
+        <v>87.70271529071773</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -1069,13 +1069,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>126.0887386816666</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>234.3107022885809</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1136,7 +1136,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>92.93819859881219</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1148,7 +1148,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>20.1453221938004</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>13.96214174992438</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,19 +1333,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>20.30061708736354</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1427,7 +1427,7 @@
         <v>250.9088959876463</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1464,7 +1464,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H12" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5420528771669</v>
+        <v>145.9114848084878</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>89.97676987683217</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1854515484204</v>
       </c>
       <c r="V13" t="n">
-        <v>252.1376433238261</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1670,10 +1670,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="15">
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.338488358459</v>
@@ -1819,16 +1819,16 @@
         <v>217.4819944627618</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V16" t="n">
-        <v>21.84464054482119</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>123.4907539332577</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>91.23885045891228</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H19" t="n">
-        <v>83.74290822599383</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I19" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2093,10 +2093,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8432760127577</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H20" t="n">
-        <v>283.5630920045445</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>84.61259060082001</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T20" t="n">
         <v>199.1970568374742</v>
@@ -2144,7 +2144,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784679</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2175,7 +2175,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H21" t="n">
-        <v>84.02406320561465</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>117.4255876952164</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T21" t="n">
         <v>188.3907690366107</v>
@@ -2242,10 +2242,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2254,10 +2254,10 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,13 +2287,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.3384883584591</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4819944627618</v>
+        <v>159.5732140099678</v>
       </c>
       <c r="U22" t="n">
-        <v>271.3782596451653</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2330,10 +2330,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8432760127577</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H23" t="n">
-        <v>283.5630920045445</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>84.61259060082001</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T23" t="n">
         <v>199.1970568374742</v>
@@ -2412,7 +2412,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H24" t="n">
-        <v>84.02406320561465</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>117.4255876952164</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T24" t="n">
         <v>188.3907690366107</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>16.34987367673276</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>148.5533506022688</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S25" t="n">
-        <v>181.3384883584591</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T25" t="n">
         <v>217.4819944627618</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1854515484204</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4805514670949</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2801,7 +2801,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2965,7 +2965,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.9811888265267</v>
+        <v>56.98118882652651</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,7 +3238,7 @@
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541851</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,7 +3475,7 @@
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545299</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652589</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C46" t="n">
         <v>142.9621736065881</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652577</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>936.2491605982757</v>
+        <v>1216.807289433107</v>
       </c>
       <c r="C2" t="n">
-        <v>567.286643657864</v>
+        <v>847.844772492695</v>
       </c>
       <c r="D2" t="n">
-        <v>567.286643657864</v>
+        <v>489.5790738859445</v>
       </c>
       <c r="E2" t="n">
-        <v>567.286643657864</v>
+        <v>489.5790738859445</v>
       </c>
       <c r="F2" t="n">
-        <v>567.286643657864</v>
+        <v>489.5790738859445</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>381.4081138979647</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>54.21339393396755</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,10 +4331,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4364,16 +4364,16 @@
         <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982757</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="Y2" t="n">
-        <v>936.2491605982757</v>
+        <v>1603.407129497228</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4398,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4416,7 +4416,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.7988452409105</v>
+        <v>325.6879402326646</v>
       </c>
       <c r="C4" t="n">
-        <v>498.8626623130036</v>
+        <v>325.6879402326646</v>
       </c>
       <c r="D4" t="n">
-        <v>348.7460229006679</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>667.7988452409105</v>
+        <v>507.3364050629043</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1267.312047941846</v>
+        <v>880.7122078777245</v>
       </c>
       <c r="C5" t="n">
-        <v>898.3495310014346</v>
+        <v>880.7122078777245</v>
       </c>
       <c r="D5" t="n">
-        <v>898.3495310014346</v>
+        <v>880.7122078777245</v>
       </c>
       <c r="E5" t="n">
-        <v>898.3495310014346</v>
+        <v>880.7122078777245</v>
       </c>
       <c r="F5" t="n">
-        <v>487.363626211827</v>
+        <v>469.7263030881169</v>
       </c>
       <c r="G5" t="n">
         <v>381.1377017843616</v>
@@ -4565,19 +4565,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4644,49 +4644,49 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>181.3053441250782</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C7" t="n">
-        <v>181.3053441250782</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D7" t="n">
-        <v>181.3053441250782</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E7" t="n">
-        <v>181.3053441250782</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F7" t="n">
-        <v>181.3053441250782</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
-        <v>181.3053441250782</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4747,28 +4747,28 @@
         <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600561</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="W7" t="n">
-        <v>409.2948950230955</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="X7" t="n">
-        <v>181.3053441250782</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="Y7" t="n">
-        <v>181.3053441250782</v>
+        <v>99.59950625323012</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2212.181128500977</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="C8" t="n">
-        <v>1843.218611560565</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D8" t="n">
-        <v>1749.341643278937</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2621.771591251948</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2403.136924224011</v>
       </c>
       <c r="U8" t="n">
-        <v>2212.181128500977</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="V8" t="n">
-        <v>2212.181128500977</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="W8" t="n">
-        <v>2212.181128500977</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="X8" t="n">
-        <v>2212.181128500977</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="Y8" t="n">
-        <v>2212.181128500977</v>
+        <v>2149.375138862102</v>
       </c>
     </row>
     <row r="9">
@@ -4878,19 +4878,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>218.1627947174723</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="C10" t="n">
-        <v>204.0596212327002</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>484.423641878219</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>484.423641878219</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610024</v>
+        <v>463.9179680525992</v>
       </c>
       <c r="V10" t="n">
-        <v>438.9553738610024</v>
+        <v>463.9179680525992</v>
       </c>
       <c r="W10" t="n">
-        <v>438.9553738610024</v>
+        <v>463.9179680525992</v>
       </c>
       <c r="X10" t="n">
-        <v>438.9553738610024</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.1627947174723</v>
+        <v>235.9284171545819</v>
       </c>
     </row>
     <row r="11">
@@ -5027,61 +5027,61 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F11" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G11" t="n">
-        <v>380.275713812763</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H11" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I11" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J11" t="n">
-        <v>373.34422365072</v>
+        <v>424.14374500152</v>
       </c>
       <c r="K11" t="n">
-        <v>842.9746074384018</v>
+        <v>893.7741287892018</v>
       </c>
       <c r="L11" t="n">
-        <v>1462.494387944176</v>
+        <v>1513.293909294976</v>
       </c>
       <c r="M11" t="n">
-        <v>2234.298471234016</v>
+        <v>2234.298471234014</v>
       </c>
       <c r="N11" t="n">
-        <v>2971.583449151122</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O11" t="n">
-        <v>3654.44548561026</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P11" t="n">
-        <v>4202.751434297608</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q11" t="n">
-        <v>4566.333620403615</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R11" t="n">
-        <v>4692.417407580353</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.950144347202</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.74099602652</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U11" t="n">
-        <v>4152.29766674607</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V11" t="n">
         <v>3821.234779402499</v>
       </c>
       <c r="W11" t="n">
-        <v>3468.466124132385</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X11" t="n">
-        <v>3095.000365871305</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.861033895493</v>
@@ -5112,31 +5112,31 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H12" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I12" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J12" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="K12" t="n">
-        <v>93.84834815160706</v>
+        <v>424.3570907149658</v>
       </c>
       <c r="L12" t="n">
-        <v>142.6767696327855</v>
+        <v>915.089423558717</v>
       </c>
       <c r="M12" t="n">
-        <v>734.6951238849133</v>
+        <v>1507.107777810845</v>
       </c>
       <c r="N12" t="n">
-        <v>1356.791087284249</v>
+        <v>2129.203741210181</v>
       </c>
       <c r="O12" t="n">
-        <v>1903.667562284444</v>
+        <v>2134.22883626969</v>
       </c>
       <c r="P12" t="n">
-        <v>2323.25108071052</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.812354695766</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>874.9184063975744</v>
+        <v>1079.593152324528</v>
       </c>
       <c r="C13" t="n">
-        <v>705.9822234696675</v>
+        <v>910.6569693966208</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8655840573317</v>
+        <v>760.540329984285</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9524904749386</v>
+        <v>612.6272364018919</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0625429770282</v>
+        <v>465.7372889039815</v>
       </c>
       <c r="G13" t="n">
-        <v>93.84834815160706</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="H13" t="n">
-        <v>93.84834815160706</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I13" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J13" t="n">
         <v>172.8304710411609</v>
@@ -5221,28 +5221,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R13" t="n">
-        <v>2429.412499335695</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S13" t="n">
-        <v>2429.412499335695</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="T13" t="n">
-        <v>2338.52687319748</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="U13" t="n">
-        <v>2049.450659512207</v>
+        <v>2072.476940608923</v>
       </c>
       <c r="V13" t="n">
-        <v>1794.766171306322</v>
+        <v>1817.792452403036</v>
       </c>
       <c r="W13" t="n">
-        <v>1505.349001269361</v>
+        <v>1528.375282366075</v>
       </c>
       <c r="X13" t="n">
-        <v>1277.359450371344</v>
+        <v>1300.385731468058</v>
       </c>
       <c r="Y13" t="n">
-        <v>1056.566871227814</v>
+        <v>1079.593152324528</v>
       </c>
     </row>
     <row r="14">
@@ -5264,19 +5264,19 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F14" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G14" t="n">
-        <v>380.275713812763</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H14" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I14" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J14" t="n">
-        <v>373.34422365072</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K14" t="n">
         <v>842.9746074384018</v>
@@ -5291,34 +5291,34 @@
         <v>2920.78392780032</v>
       </c>
       <c r="O14" t="n">
-        <v>3654.44548561026</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P14" t="n">
-        <v>4202.751434297608</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q14" t="n">
-        <v>4566.333620403615</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R14" t="n">
-        <v>4692.417407580353</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.950144347202</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.74099602652</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U14" t="n">
-        <v>4152.29766674607</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V14" t="n">
-        <v>3821.234779402499</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W14" t="n">
-        <v>3468.466124132385</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X14" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.861033895493</v>
@@ -5349,31 +5349,31 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H15" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I15" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J15" t="n">
-        <v>93.84834815160706</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K15" t="n">
-        <v>93.84834815160706</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L15" t="n">
-        <v>584.5806809953583</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M15" t="n">
-        <v>1176.599035247486</v>
+        <v>1654.75575956269</v>
       </c>
       <c r="N15" t="n">
-        <v>1356.791087284249</v>
+        <v>2276.851722962027</v>
       </c>
       <c r="O15" t="n">
-        <v>1903.667562284444</v>
+        <v>2276.851722962027</v>
       </c>
       <c r="P15" t="n">
-        <v>2323.25108071052</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.812354695766</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1016.791123359144</v>
+        <v>847.854940431237</v>
       </c>
       <c r="C16" t="n">
-        <v>847.8549404312371</v>
+        <v>847.854940431237</v>
       </c>
       <c r="D16" t="n">
-        <v>697.7383010189013</v>
+        <v>697.7383010189012</v>
       </c>
       <c r="E16" t="n">
-        <v>549.8252074365082</v>
+        <v>549.8252074365081</v>
       </c>
       <c r="F16" t="n">
         <v>402.9352599385978</v>
       </c>
       <c r="G16" t="n">
-        <v>235.7210651131767</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="H16" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I16" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J16" t="n">
         <v>172.8304710411609</v>
@@ -5458,28 +5458,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R16" t="n">
-        <v>2361.553154294197</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="S16" t="n">
-        <v>2178.382964033127</v>
+        <v>2246.242309074625</v>
       </c>
       <c r="T16" t="n">
-        <v>1958.704181747509</v>
+        <v>2026.563526789007</v>
       </c>
       <c r="U16" t="n">
-        <v>1958.704181747509</v>
+        <v>1737.487313103734</v>
       </c>
       <c r="V16" t="n">
-        <v>1936.638888267892</v>
+        <v>1482.802824897847</v>
       </c>
       <c r="W16" t="n">
-        <v>1647.221718230931</v>
+        <v>1193.385654860886</v>
       </c>
       <c r="X16" t="n">
-        <v>1419.232167332914</v>
+        <v>1068.647519574767</v>
       </c>
       <c r="Y16" t="n">
-        <v>1198.439588189384</v>
+        <v>847.854940431237</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C17" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D17" t="n">
         <v>1591.032978284208</v>
@@ -5501,19 +5501,19 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F17" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G17" t="n">
-        <v>380.275713812763</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H17" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160684</v>
       </c>
       <c r="I17" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J17" t="n">
-        <v>373.34422365072</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K17" t="n">
         <v>842.9746074384018</v>
@@ -5528,37 +5528,37 @@
         <v>2920.78392780032</v>
       </c>
       <c r="O17" t="n">
-        <v>3654.44548561026</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P17" t="n">
-        <v>4202.751434297608</v>
+        <v>4151.951912946806</v>
       </c>
       <c r="Q17" t="n">
-        <v>4566.333620403615</v>
+        <v>4515.534099052813</v>
       </c>
       <c r="R17" t="n">
-        <v>4692.417407580353</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.950144347202</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.74099602652</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U17" t="n">
-        <v>4152.29766674607</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V17" t="n">
-        <v>3821.234779402499</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W17" t="n">
-        <v>3468.466124132385</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X17" t="n">
-        <v>3095.000365871305</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="18">
@@ -5586,25 +5586,25 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H18" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I18" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J18" t="n">
-        <v>93.84834815160706</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K18" t="n">
-        <v>424.3570907149658</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L18" t="n">
-        <v>915.089423558717</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="M18" t="n">
-        <v>915.089423558717</v>
+        <v>1164.023426718939</v>
       </c>
       <c r="N18" t="n">
-        <v>1356.791087284249</v>
+        <v>1786.119390118276</v>
       </c>
       <c r="O18" t="n">
         <v>1903.667562284444</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>723.0852658456174</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C19" t="n">
-        <v>723.0852658456174</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="D19" t="n">
-        <v>723.0852658456174</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="E19" t="n">
-        <v>575.1721722632243</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="F19" t="n">
-        <v>428.2822247653139</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="G19" t="n">
-        <v>261.0680299398928</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="H19" t="n">
-        <v>176.4792337520202</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I19" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J19" t="n">
         <v>172.8304710411609</v>
@@ -5713,10 +5713,10 @@
         <v>1125.526309819387</v>
       </c>
       <c r="X19" t="n">
-        <v>1125.526309819387</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y19" t="n">
-        <v>904.7337306758571</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="20">
@@ -5732,64 +5732,64 @@
         <v>1949.298676890959</v>
       </c>
       <c r="D20" t="n">
-        <v>1591.032978284209</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E20" t="n">
-        <v>1205.244725685965</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F20" t="n">
-        <v>794.2588208963571</v>
+        <v>794.2588208963564</v>
       </c>
       <c r="G20" t="n">
-        <v>380.2757138127636</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H20" t="n">
-        <v>93.84834815160777</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I20" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J20" t="n">
-        <v>373.3442236507186</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K20" t="n">
-        <v>842.9746074383984</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L20" t="n">
-        <v>1462.494387944171</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M20" t="n">
-        <v>2183.498949883205</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N20" t="n">
-        <v>2920.783927800308</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O20" t="n">
-        <v>3603.645964259444</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P20" t="n">
-        <v>4151.95191294679</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q20" t="n">
-        <v>4515.534099052795</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R20" t="n">
-        <v>4692.417407580353</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T20" t="n">
         <v>4405.740996026519</v>
       </c>
       <c r="U20" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V20" t="n">
-        <v>3821.234779402498</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W20" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X20" t="n">
         <v>3095.000365871304</v>
@@ -5805,61 +5805,61 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>943.6608414294088</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C21" t="n">
-        <v>769.2078121482818</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D21" t="n">
-        <v>620.2734024870306</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E21" t="n">
-        <v>461.035947481575</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F21" t="n">
-        <v>314.50138950846</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G21" t="n">
-        <v>178.7211392683895</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H21" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I21" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J21" t="n">
-        <v>93.84834815160706</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K21" t="n">
-        <v>424.3570907149644</v>
+        <v>474.5240650264088</v>
       </c>
       <c r="L21" t="n">
-        <v>915.0894235587139</v>
+        <v>965.2563978701601</v>
       </c>
       <c r="M21" t="n">
-        <v>915.0894235587139</v>
+        <v>965.2563978701601</v>
       </c>
       <c r="N21" t="n">
-        <v>1537.185386958048</v>
+        <v>1587.352361269496</v>
       </c>
       <c r="O21" t="n">
-        <v>1903.667562284447</v>
+        <v>2134.22883626969</v>
       </c>
       <c r="P21" t="n">
-        <v>2323.251080710521</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.812354695767</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R21" t="n">
-        <v>2553.812354695767</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S21" t="n">
         <v>2435.200649953124</v>
       </c>
       <c r="T21" t="n">
-        <v>2244.906943855538</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U21" t="n">
         <v>2016.877442379908</v>
@@ -5871,7 +5871,7 @@
         <v>1527.487977419963</v>
       </c>
       <c r="X21" t="n">
-        <v>1319.636477214431</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y21" t="n">
         <v>1111.876178449477</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>577.9118194873282</v>
+        <v>804.6189678792535</v>
       </c>
       <c r="C22" t="n">
-        <v>408.9756365594213</v>
+        <v>635.6827849513467</v>
       </c>
       <c r="D22" t="n">
-        <v>408.9756365594213</v>
+        <v>485.566145539011</v>
       </c>
       <c r="E22" t="n">
-        <v>261.0625429770282</v>
+        <v>485.566145539011</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0625429770282</v>
+        <v>485.566145539011</v>
       </c>
       <c r="G22" t="n">
-        <v>93.84834815160706</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="H22" t="n">
-        <v>93.84834815160706</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I22" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J22" t="n">
-        <v>172.8304710411604</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K22" t="n">
-        <v>432.4591980117232</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L22" t="n">
-        <v>820.2210160948563</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M22" t="n">
-        <v>1239.450608139314</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N22" t="n">
-        <v>1654.14647393102</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O22" t="n">
-        <v>2021.168930946049</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P22" t="n">
-        <v>2311.699365782252</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q22" t="n">
-        <v>2429.412499335687</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R22" t="n">
-        <v>2429.412499335687</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="S22" t="n">
-        <v>2246.242309074617</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="T22" t="n">
-        <v>2026.563526788999</v>
+        <v>2268.227434679161</v>
       </c>
       <c r="U22" t="n">
-        <v>1752.444072601963</v>
+        <v>1979.151220993888</v>
       </c>
       <c r="V22" t="n">
-        <v>1497.759584396076</v>
+        <v>1724.466732788001</v>
       </c>
       <c r="W22" t="n">
-        <v>1208.342414359116</v>
+        <v>1435.049562751041</v>
       </c>
       <c r="X22" t="n">
-        <v>980.3528634610981</v>
+        <v>1207.060011853023</v>
       </c>
       <c r="Y22" t="n">
-        <v>759.5602843175679</v>
+        <v>986.2674327094933</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2318.261193831372</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C23" t="n">
-        <v>1949.29867689096</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D23" t="n">
-        <v>1591.032978284209</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E23" t="n">
-        <v>1205.244725685965</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F23" t="n">
-        <v>794.2588208963574</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G23" t="n">
-        <v>380.2757138127638</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H23" t="n">
-        <v>93.84834815160771</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I23" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J23" t="n">
-        <v>373.3442236507186</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K23" t="n">
-        <v>842.9746074383984</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L23" t="n">
-        <v>1462.494387944171</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M23" t="n">
-        <v>2183.498949883205</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N23" t="n">
-        <v>2920.783927800308</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O23" t="n">
-        <v>3654.445485610265</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P23" t="n">
-        <v>4202.751434297611</v>
+        <v>4151.951912946806</v>
       </c>
       <c r="Q23" t="n">
-        <v>4566.333620403616</v>
+        <v>4515.534099052813</v>
       </c>
       <c r="R23" t="n">
-        <v>4692.417407580353</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.950144347202</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.74099602652</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U23" t="n">
-        <v>4152.29766674607</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V23" t="n">
         <v>3821.234779402499</v>
       </c>
       <c r="W23" t="n">
-        <v>3468.466124132385</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X23" t="n">
-        <v>3095.000365871305</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.861033895494</v>
+        <v>2704.861033895493</v>
       </c>
     </row>
     <row r="24">
@@ -6042,61 +6042,61 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>943.6608414294088</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C24" t="n">
-        <v>769.2078121482818</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D24" t="n">
-        <v>620.2734024870306</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E24" t="n">
-        <v>461.035947481575</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F24" t="n">
-        <v>314.50138950846</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G24" t="n">
-        <v>178.7211392683895</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H24" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I24" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J24" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="K24" t="n">
-        <v>93.84834815160706</v>
+        <v>424.3570907149658</v>
       </c>
       <c r="L24" t="n">
-        <v>584.5806809953565</v>
+        <v>915.089423558717</v>
       </c>
       <c r="M24" t="n">
-        <v>1176.599035247482</v>
+        <v>1507.107777810845</v>
       </c>
       <c r="N24" t="n">
-        <v>1356.791087284254</v>
+        <v>2129.203741210181</v>
       </c>
       <c r="O24" t="n">
-        <v>1903.667562284447</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P24" t="n">
-        <v>2323.251080710521</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.812354695767</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R24" t="n">
-        <v>2553.812354695767</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S24" t="n">
         <v>2435.200649953124</v>
       </c>
       <c r="T24" t="n">
-        <v>2244.906943855538</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U24" t="n">
         <v>2016.877442379908</v>
@@ -6108,7 +6108,7 @@
         <v>1527.487977419963</v>
       </c>
       <c r="X24" t="n">
-        <v>1319.636477214431</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y24" t="n">
         <v>1111.876178449477</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>562.9550599890908</v>
+        <v>949.3053695472213</v>
       </c>
       <c r="C25" t="n">
-        <v>394.018877061184</v>
+        <v>780.3691866193144</v>
       </c>
       <c r="D25" t="n">
-        <v>243.9022376488482</v>
+        <v>780.3691866193144</v>
       </c>
       <c r="E25" t="n">
-        <v>243.9022376488482</v>
+        <v>632.4560930369213</v>
       </c>
       <c r="F25" t="n">
-        <v>243.9022376488482</v>
+        <v>485.566145539011</v>
       </c>
       <c r="G25" t="n">
-        <v>93.84834815160706</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="H25" t="n">
-        <v>93.84834815160706</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I25" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J25" t="n">
-        <v>172.8304710411604</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K25" t="n">
-        <v>432.4591980117232</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L25" t="n">
-        <v>820.2210160948563</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M25" t="n">
-        <v>1239.450608139314</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N25" t="n">
-        <v>1654.14647393102</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O25" t="n">
-        <v>2021.168930946049</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P25" t="n">
-        <v>2311.699365782252</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q25" t="n">
-        <v>2429.412499335687</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R25" t="n">
-        <v>2429.412499335687</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S25" t="n">
-        <v>2246.242309074617</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T25" t="n">
-        <v>2026.563526788999</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U25" t="n">
-        <v>1737.487313103726</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="V25" t="n">
-        <v>1482.802824897839</v>
+        <v>1704.019693541621</v>
       </c>
       <c r="W25" t="n">
-        <v>1193.385654860878</v>
+        <v>1414.60252350466</v>
       </c>
       <c r="X25" t="n">
-        <v>965.3961039628607</v>
+        <v>1186.612972606643</v>
       </c>
       <c r="Y25" t="n">
-        <v>744.6035248193306</v>
+        <v>965.820393463113</v>
       </c>
     </row>
     <row r="26">
@@ -6215,31 +6215,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6315,10 +6315,10 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2129.438138565707</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6361,16 +6361,16 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
@@ -6382,46 +6382,46 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
         <v>974.1018203925706</v>
@@ -6443,40 +6443,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6540,22 +6540,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>2129.438138565707</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6619,52 +6619,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6674,46 +6674,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6777,22 +6777,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>352.5519571452613</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718132</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,52 +6832,52 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319332</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656826</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150032</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942664</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580123</v>
+        <v>411.2214559580121</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345485</v>
+        <v>268.5553036345483</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384029</v>
+        <v>151.3734194384027</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380731</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311326</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N34" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
         <v>2596.781734931274</v>
@@ -6889,19 +6889,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838287</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594056</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.338681582391</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400517</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="35">
@@ -6926,37 +6926,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7026,10 +7026,10 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319332</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656826</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150032</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942664</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580123</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345485</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
@@ -7093,16 +7093,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954151</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311326</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N37" t="n">
         <v>1785.769117656414</v>
@@ -7111,10 +7111,10 @@
         <v>2179.340199382519</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
         <v>2596.781734931274</v>
@@ -7126,19 +7126,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838287</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582391</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400517</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="38">
@@ -7154,10 +7154,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,10 +7184,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7251,28 +7251,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>244.2098454714573</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N39" t="n">
-        <v>1670.092171589158</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7309,22 +7309,22 @@
         <v>926.9575315319328</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656822</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384021</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7400,28 +7400,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7430,7 +7430,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7494,22 +7494,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7558,7 +7558,7 @@
         <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7567,13 +7567,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
         <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7588,10 +7588,10 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547834</v>
@@ -7637,10 +7637,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
@@ -7725,16 +7725,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M45" t="n">
-        <v>1072.713683962606</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N45" t="n">
         <v>1344.266747951538</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F46" t="n">
         <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H46" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380723</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311318</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,10 +7828,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -7846,7 +7846,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8064,10 +8064,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028826</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>51.31264782909091</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8696,7 +8696,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>51.31264782909273</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8939,7 +8939,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>51.31264782909307</v>
+        <v>51.31264782909113</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -9176,7 +9176,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>51.31264782909307</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>51.31264782909091</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9413,7 +9413,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>51.31264782909113</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>51.31264782911214</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9650,7 +9650,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>51.31264782911228</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>51.31264782909182</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>-4.22895166228016e-13</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>-2.559456629768911e-13</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -22550,7 +22550,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>223.8679814397122</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22559,7 +22559,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>381.4280338108888</v>
+        <v>306.694919632695</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22604,16 +22604,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22708,7 +22708,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>26.02192683660442</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>19.63056806867917</v>
       </c>
       <c r="H13" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.338488358459</v>
       </c>
       <c r="T13" t="n">
-        <v>127.5052245859296</v>
+        <v>217.4819944627658</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="15">
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,16 +23707,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1854515484204</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>230.2930027790068</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>102.2189014557794</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>76.00797063971555</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>56.71108156596009</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24130,10 +24130,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.453989791954</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.80457674440925</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>67.1807515910839</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>57.90878045279405</v>
       </c>
       <c r="U22" t="n">
-        <v>14.8071919032551</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>163.4821065052045</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>16.98870227489815</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.453989791954</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.80457674440925</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>67.1807515910839</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>57.22910392194225</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>-5.562217481057792e-13</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25555,7 +25555,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>-1.933712577109547e-13</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>186814.8360194935</v>
+        <v>186814.8360194933</v>
       </c>
       <c r="C2" t="n">
         <v>225786.486712678</v>
@@ -26320,10 +26320,10 @@
         <v>225786.486712678</v>
       </c>
       <c r="E2" t="n">
-        <v>221837.8187076038</v>
+        <v>221837.8187076037</v>
       </c>
       <c r="F2" t="n">
-        <v>221837.8187076038</v>
+        <v>221837.8187076037</v>
       </c>
       <c r="G2" t="n">
         <v>221837.8187076038</v>
@@ -26332,28 +26332,28 @@
         <v>221837.8187076038</v>
       </c>
       <c r="I2" t="n">
-        <v>221837.8187076037</v>
+        <v>221837.8187076038</v>
       </c>
       <c r="J2" t="n">
+        <v>221965.3149147518</v>
+      </c>
+      <c r="K2" t="n">
         <v>221965.3149147517</v>
       </c>
-      <c r="K2" t="n">
-        <v>221965.3149147516</v>
-      </c>
       <c r="L2" t="n">
+        <v>225786.4867126781</v>
+      </c>
+      <c r="M2" t="n">
         <v>225786.486712678</v>
       </c>
-      <c r="M2" t="n">
-        <v>225786.4867126781</v>
-      </c>
       <c r="N2" t="n">
-        <v>225786.4867126779</v>
+        <v>225786.486712678</v>
       </c>
       <c r="O2" t="n">
         <v>225786.4867126781</v>
       </c>
       <c r="P2" t="n">
-        <v>225786.486712678</v>
+        <v>225786.4867126781</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>936509.6654545122</v>
+        <v>936509.6654545121</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,13 +26381,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>-1.467162401580329e-09</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>183669.0093792256</v>
+        <v>183669.0093792226</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,16 +26396,16 @@
         <v>19427.71799363178</v>
       </c>
       <c r="M3" t="n">
-        <v>124307.2113901373</v>
+        <v>124307.2113901372</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>5.400124791776761e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>120178.1964869546</v>
+        <v>120178.1964869545</v>
       </c>
       <c r="C4" t="n">
         <v>201064.5059277315</v>
@@ -26424,40 +26424,40 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>5781.971894855141</v>
+        <v>5781.971894855114</v>
       </c>
       <c r="F4" t="n">
-        <v>5781.971894855145</v>
+        <v>5781.971894855118</v>
       </c>
       <c r="G4" t="n">
-        <v>5781.971894855119</v>
+        <v>5781.971894855114</v>
       </c>
       <c r="H4" t="n">
-        <v>5781.971894855411</v>
+        <v>5781.971894855169</v>
       </c>
       <c r="I4" t="n">
-        <v>5781.971894855413</v>
+        <v>5781.971894855127</v>
       </c>
       <c r="J4" t="n">
-        <v>5067.592601670428</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="K4" t="n">
-        <v>5067.592601670416</v>
+        <v>5067.592601670468</v>
       </c>
       <c r="L4" t="n">
-        <v>13058.45186476388</v>
+        <v>13058.45186476391</v>
       </c>
       <c r="M4" t="n">
-        <v>13058.45186476391</v>
+        <v>13058.45186476392</v>
       </c>
       <c r="N4" t="n">
         <v>13058.45186476392</v>
       </c>
       <c r="O4" t="n">
-        <v>13058.45186476391</v>
+        <v>13058.45186476389</v>
       </c>
       <c r="P4" t="n">
-        <v>13058.4518647639</v>
+        <v>13058.45186476392</v>
       </c>
     </row>
     <row r="5">
@@ -26473,16 +26473,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="F5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="G5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="H5" t="n">
         <v>100930.0394572385</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-606190.317745415</v>
+        <v>-606544.6054789895</v>
       </c>
       <c r="C6" t="n">
-        <v>-58137.09727846298</v>
+        <v>-58137.09727846296</v>
       </c>
       <c r="D6" t="n">
-        <v>-58137.09727846298</v>
+        <v>-58137.097278463</v>
       </c>
       <c r="E6" t="n">
-        <v>-821383.8580990022</v>
+        <v>-821419.7550808664</v>
       </c>
       <c r="F6" t="n">
-        <v>115125.80735551</v>
+        <v>115089.9103736458</v>
       </c>
       <c r="G6" t="n">
-        <v>115125.8073555101</v>
+        <v>115089.9103736459</v>
       </c>
       <c r="H6" t="n">
-        <v>115125.807355513</v>
+        <v>115089.9103736457</v>
       </c>
       <c r="I6" t="n">
-        <v>115125.8073555098</v>
+        <v>115089.9103736458</v>
       </c>
       <c r="J6" t="n">
-        <v>-67893.8168900515</v>
+        <v>-67928.55481548399</v>
       </c>
       <c r="K6" t="n">
-        <v>115775.1924891741</v>
+        <v>115740.4545637384</v>
       </c>
       <c r="L6" t="n">
-        <v>90136.20100036697</v>
+        <v>90136.20100036706</v>
       </c>
       <c r="M6" t="n">
-        <v>-14743.29239613848</v>
+        <v>-14743.29239613844</v>
       </c>
       <c r="N6" t="n">
-        <v>109563.9189939988</v>
+        <v>109563.9189939986</v>
       </c>
       <c r="O6" t="n">
-        <v>109563.9189939988</v>
+        <v>109563.918993999</v>
       </c>
       <c r="P6" t="n">
         <v>109563.9189939987</v>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1358.041048716386</v>
@@ -26753,10 +26753,10 @@
         <v>1358.041048716386</v>
       </c>
       <c r="H3" t="n">
-        <v>1358.041048716382</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="I3" t="n">
-        <v>1358.041048716382</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="J3" t="n">
         <v>1367.975500341674</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1173.104351895088</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.750155989720952e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26975,13 +26975,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>-2.625481996530048e-12</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>9.934451625292468</v>
+        <v>9.934451625288148</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26993,7 +26993,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.8170791405327</v>
+        <v>498.8170791405321</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>673.8912089591157</v>
+        <v>673.8912089591163</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.8170791405327</v>
+        <v>498.8170791405321</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.8170791405327</v>
+        <v>498.8170791405321</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>130.8150601809708</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.6636082523942</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27546,7 +27546,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>158.8578157762263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27628,7 +27628,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>308.6205048376042</v>
+        <v>326.0814547300773</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27789,13 +27789,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>30.08215016012855</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>51.97117195339683</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27856,7 +27856,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>261.7448430218708</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27868,7 +27868,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.2703906151712</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -28011,10 +28011,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>153.2846793487035</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>265.9812571546142</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28147,7 +28147,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28299,13 +28299,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>-1.676039100824228e-12</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>1.885306725550132e-12</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -28390,7 +28390,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28524,7 +28524,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28864,7 +28864,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>1.125499693443999e-12</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -29329,7 +29329,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29521,7 +29521,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="35">
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
   </sheetData>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,22 +31221,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H11" t="n">
         <v>55.91171011122282</v>
@@ -31768,7 +31768,7 @@
         <v>861.5439710364263</v>
       </c>
       <c r="M11" t="n">
-        <v>958.6336695293309</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N11" t="n">
         <v>974.1453645229608</v>
@@ -31783,7 +31783,7 @@
         <v>589.5604233148606</v>
       </c>
       <c r="R11" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S11" t="n">
         <v>124.4074789854257</v>
@@ -31832,7 +31832,7 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H12" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,25 +31841,25 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L12" t="n">
-        <v>187.8760176396504</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M12" t="n">
-        <v>740.1323715504302</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N12" t="n">
         <v>759.7214730927637</v>
       </c>
       <c r="O12" t="n">
-        <v>694.9967242426204</v>
+        <v>147.6720980399086</v>
       </c>
       <c r="P12" t="n">
-        <v>557.7961431982454</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q12" t="n">
-        <v>372.8719498286952</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -31868,7 +31868,7 @@
         <v>54.2575834086216</v>
       </c>
       <c r="T12" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U12" t="n">
         <v>0.1921756201013754</v>
@@ -31914,7 +31914,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I13" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J13" t="n">
         <v>173.1391022273333</v>
@@ -31926,7 +31926,7 @@
         <v>364.0885788640618</v>
       </c>
       <c r="M13" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N13" t="n">
         <v>374.7525405416874</v>
@@ -32075,10 +32075,10 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L15" t="n">
         <v>634.2436048745724</v>
@@ -32087,16 +32087,16 @@
         <v>740.1323715504301</v>
       </c>
       <c r="N15" t="n">
-        <v>313.3538858578419</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O15" t="n">
-        <v>694.9967242426204</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>557.7961431982453</v>
+        <v>413.7326212867947</v>
       </c>
       <c r="Q15" t="n">
-        <v>372.8719498286952</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32312,22 +32312,22 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K18" t="n">
         <v>471.6886536848224</v>
       </c>
       <c r="L18" t="n">
-        <v>634.2436048745724</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N18" t="n">
-        <v>577.5050087757903</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O18" t="n">
-        <v>694.9967242426204</v>
+        <v>261.3317718850183</v>
       </c>
       <c r="P18" t="n">
         <v>557.7961431982453</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.459461502377409</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H20" t="n">
-        <v>55.91171011122265</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704053</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>463.364970687405</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K20" t="n">
-        <v>694.4639760830408</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L20" t="n">
-        <v>861.5439710364237</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M20" t="n">
-        <v>958.6336695293279</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N20" t="n">
-        <v>974.1453645229578</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O20" t="n">
-        <v>919.8578442086924</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P20" t="n">
-        <v>785.07738836875</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q20" t="n">
-        <v>589.5604233148588</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R20" t="n">
-        <v>342.9428985987152</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S20" t="n">
-        <v>124.4074789854253</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T20" t="n">
-        <v>23.89879272665712</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4367569201901926</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.921069425540896</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H21" t="n">
-        <v>28.21138103088182</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K21" t="n">
-        <v>471.688653684821</v>
+        <v>373.2229896036074</v>
       </c>
       <c r="L21" t="n">
-        <v>634.2436048745706</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M21" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>759.7214730927615</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O21" t="n">
-        <v>512.7802599256554</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P21" t="n">
-        <v>557.7961431982436</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q21" t="n">
-        <v>372.8719498286941</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.25758340862144</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T21" t="n">
-        <v>11.77395965821089</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1921756201013748</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.448926481291835</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H22" t="n">
-        <v>21.77318271548561</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I22" t="n">
-        <v>73.64589818284904</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J22" t="n">
-        <v>173.1391022273327</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K22" t="n">
-        <v>284.5207311900877</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L22" t="n">
-        <v>364.0885788640607</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M22" t="n">
-        <v>383.880357426501</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N22" t="n">
-        <v>374.7525405416863</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O22" t="n">
-        <v>346.1446266465952</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P22" t="n">
-        <v>296.1865264282415</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q22" t="n">
-        <v>205.0641983561736</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R22" t="n">
-        <v>110.1126397860856</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S22" t="n">
-        <v>42.67810967851315</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T22" t="n">
-        <v>10.46359496551966</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1335778080704639</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.459461502377409</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H23" t="n">
-        <v>55.91171011122265</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704053</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>463.364970687405</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K23" t="n">
-        <v>694.4639760830408</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L23" t="n">
-        <v>861.5439710364237</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M23" t="n">
-        <v>958.6336695293279</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N23" t="n">
-        <v>974.1453645229578</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O23" t="n">
-        <v>919.8578442086924</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P23" t="n">
-        <v>785.07738836875</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q23" t="n">
-        <v>589.5604233148588</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R23" t="n">
-        <v>342.9428985987152</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S23" t="n">
-        <v>124.4074789854253</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T23" t="n">
-        <v>23.89879272665712</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4367569201901926</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.921069425540896</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H24" t="n">
-        <v>28.21138103088182</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,37 +32789,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L24" t="n">
-        <v>634.2436048745706</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M24" t="n">
-        <v>740.1323715504278</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N24" t="n">
-        <v>313.3538858578511</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O24" t="n">
-        <v>694.9967242426184</v>
+        <v>571.4938338238237</v>
       </c>
       <c r="P24" t="n">
-        <v>557.7961431982436</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>372.8719498286941</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.25758340862144</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T24" t="n">
-        <v>11.77395965821089</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1921756201013748</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.448926481291835</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H25" t="n">
-        <v>21.77318271548561</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I25" t="n">
-        <v>73.64589818284904</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J25" t="n">
-        <v>173.1391022273327</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K25" t="n">
-        <v>284.5207311900877</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L25" t="n">
-        <v>364.0885788640607</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M25" t="n">
-        <v>383.880357426501</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N25" t="n">
-        <v>374.7525405416863</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O25" t="n">
-        <v>346.1446266465952</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P25" t="n">
-        <v>296.1865264282415</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q25" t="n">
-        <v>205.0641983561736</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R25" t="n">
-        <v>110.1126397860856</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S25" t="n">
-        <v>42.67810967851315</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T25" t="n">
-        <v>10.46359496551966</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1335778080704639</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,22 +33026,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>595.327537312171</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33050,13 +33050,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,34 +33251,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>595.327537312171</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33287,13 +33287,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,34 +33488,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33524,13 +33524,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,22 +33737,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>606.5820696732821</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33761,13 +33761,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>289.7537444526271</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>370.9642309107746</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34214,16 +34214,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>270.9486956727256</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>688.8020111197787</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
@@ -34232,7 +34232,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34445,19 +34445,19 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>164.2853229338207</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34696,25 +34696,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,16 +34784,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,7 +35024,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,13 +35261,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>282.3190661607201</v>
+        <v>333.631713989811</v>
       </c>
       <c r="K11" t="n">
         <v>474.3741250380625</v>
@@ -35416,7 +35416,7 @@
         <v>625.777556066439</v>
       </c>
       <c r="M11" t="n">
-        <v>779.6000841311509</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N11" t="n">
         <v>744.7323009263698</v>
@@ -35431,7 +35431,7 @@
         <v>367.2547334404111</v>
       </c>
       <c r="R11" t="n">
-        <v>127.3573607845842</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L12" t="n">
-        <v>49.32163785977623</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M12" t="n">
-        <v>597.9983376284119</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N12" t="n">
         <v>628.3797610094305</v>
       </c>
       <c r="O12" t="n">
-        <v>552.400479798176</v>
+        <v>5.07585359546421</v>
       </c>
       <c r="P12" t="n">
-        <v>423.8217357839152</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q12" t="n">
-        <v>232.8901757426737</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35574,7 +35574,7 @@
         <v>391.678604124378</v>
       </c>
       <c r="M13" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N13" t="n">
         <v>418.8847129209161</v>
@@ -35583,10 +35583,10 @@
         <v>370.7297545606359</v>
       </c>
       <c r="P13" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q13" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35659,7 +35659,7 @@
         <v>744.7323009263698</v>
       </c>
       <c r="O14" t="n">
-        <v>741.0722806161015</v>
+        <v>741.0722806160995</v>
       </c>
       <c r="P14" t="n">
         <v>553.8443926134828</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L15" t="n">
         <v>495.6892250946982</v>
@@ -35735,16 +35735,16 @@
         <v>597.9983376284117</v>
       </c>
       <c r="N15" t="n">
-        <v>182.0121737745086</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O15" t="n">
-        <v>552.400479798176</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>423.8217357839151</v>
+        <v>279.7582138724644</v>
       </c>
       <c r="Q15" t="n">
-        <v>232.8901757426737</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35820,7 +35820,7 @@
         <v>370.7297545606359</v>
       </c>
       <c r="P16" t="n">
-        <v>293.4650856931372</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q16" t="n">
         <v>118.9021551044798</v>
@@ -35896,7 +35896,7 @@
         <v>744.7323009263698</v>
       </c>
       <c r="O17" t="n">
-        <v>741.0722806161015</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P17" t="n">
         <v>553.8443926134828</v>
@@ -35905,7 +35905,7 @@
         <v>367.2547334404111</v>
       </c>
       <c r="R17" t="n">
-        <v>127.3573607845841</v>
+        <v>178.670008613675</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,22 +35960,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K18" t="n">
         <v>333.8472147104634</v>
       </c>
       <c r="L18" t="n">
-        <v>495.6892250946982</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N18" t="n">
-        <v>446.163296692457</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O18" t="n">
-        <v>552.400479798176</v>
+        <v>118.7355274405739</v>
       </c>
       <c r="P18" t="n">
         <v>423.8217357839151</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>-6.536993168992922e-13</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>282.3190661607188</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K20" t="n">
-        <v>474.3741250380603</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L20" t="n">
-        <v>625.7775560664365</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M20" t="n">
-        <v>728.2874363020552</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N20" t="n">
-        <v>744.7323009263669</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O20" t="n">
-        <v>689.7596327870057</v>
+        <v>741.0722806160995</v>
       </c>
       <c r="P20" t="n">
-        <v>553.8443926134805</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q20" t="n">
-        <v>367.2547334404093</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R20" t="n">
-        <v>178.6700086136952</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K21" t="n">
-        <v>333.847214710462</v>
+        <v>235.3815506292484</v>
       </c>
       <c r="L21" t="n">
-        <v>495.6892250946964</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>628.3797610094282</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O21" t="n">
-        <v>370.184015481211</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P21" t="n">
-        <v>423.8217357839134</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q21" t="n">
-        <v>232.8901757426726</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>79.77992211065995</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K22" t="n">
-        <v>262.2512393642048</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L22" t="n">
-        <v>391.6786041243769</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M22" t="n">
-        <v>423.4642343883416</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N22" t="n">
-        <v>418.8847129209149</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O22" t="n">
-        <v>370.7297545606348</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P22" t="n">
-        <v>293.465085693135</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q22" t="n">
-        <v>118.9021551044792</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>-6.536993168992922e-13</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>282.3190661607188</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K23" t="n">
-        <v>474.3741250380603</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L23" t="n">
-        <v>625.7775560664365</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M23" t="n">
-        <v>728.2874363020552</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N23" t="n">
-        <v>744.7323009263669</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O23" t="n">
-        <v>741.072280616118</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P23" t="n">
-        <v>553.8443926134805</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q23" t="n">
-        <v>367.2547334404093</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R23" t="n">
-        <v>127.3573607845831</v>
+        <v>178.6700086136759</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,25 +36437,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L24" t="n">
-        <v>495.6892250946964</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M24" t="n">
-        <v>597.9983376284094</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N24" t="n">
-        <v>182.0121737745177</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O24" t="n">
-        <v>552.4004797981739</v>
+        <v>428.8975893793793</v>
       </c>
       <c r="P24" t="n">
-        <v>423.8217357839134</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>232.8901757426726</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>79.77992211065995</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K25" t="n">
-        <v>262.2512393642048</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L25" t="n">
-        <v>391.6786041243769</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M25" t="n">
-        <v>423.4642343883416</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N25" t="n">
-        <v>418.8847129209149</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O25" t="n">
-        <v>370.7297545606348</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P25" t="n">
-        <v>293.465085693135</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q25" t="n">
-        <v>118.9021551044792</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462675</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,19 +36677,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>463.9858252288377</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396405</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,25 +36908,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>463.9858252288377</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,25 +37145,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>261.348781916454</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37233,13 +37233,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,19 +37388,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37470,13 +37470,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>151.9123054782681</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>228.3679864663302</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37707,13 +37707,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
@@ -37862,16 +37862,16 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>128.8146617507074</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>546.2057666753343</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
@@ -37880,7 +37880,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,13 +37935,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
         <v>450.5570744930848</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38093,19 +38093,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
@@ -38175,25 +38175,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
